--- a/biology/Zoologie/Afropisaura_ducis/Afropisaura_ducis.xlsx
+++ b/biology/Zoologie/Afropisaura_ducis/Afropisaura_ducis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afropisaura ducis est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afropisaura ducis est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique de l'Ouest, en Afrique de l'Est, en Afrique centrale et en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique de l'Ouest, en Afrique de l'Est, en Afrique centrale et en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 12 mm[2].
-Afropisaura ducis mesure de 12 à 13 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 12 mm.
+Afropisaura ducis mesure de 12 à 13 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Pisaura ducis par Strand en 1913. Elle est placée dans le genre Afropisaura par Blandin en 1976[3].
-Pisaura camerunensis[4] a été placée en synonymie par Blandin en 1976[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Pisaura ducis par Strand en 1913. Elle est placée dans le genre Afropisaura par Blandin en 1976.
+Pisaura camerunensis a été placée en synonymie par Blandin en 1976.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Strand, 1913 : « Arachnida. I. » Wissenschaftliche Ergebnisse der Deutschen Zentral-Afrika-Expedition 1907-1908, unter Führung Adolf Friedrichs, Herzogs zu Mecklenburg, Klinkhardt &amp; Biermann, Leipzig, vol. 4, Zool. 2, p. 325-474.</t>
         </is>
